--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.631100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.631100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23EA2BD-4EF0-4778-A165-12F0C5846DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7484E673-DB9D-425B-B6EC-80F041276194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T071914.856" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T070543.345" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="91">
   <si>
     <t>Do Ty</t>
   </si>
@@ -230,6 +230,57 @@
   </si>
   <si>
     <t>NR10005005</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Inventory Issue</t>
+  </si>
+  <si>
+    <t>ALL_perbaikan on hand</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>ANNISA_C</t>
+  </si>
+  <si>
+    <t>APOTEK &amp; KLINIK NUHATO</t>
+  </si>
+  <si>
+    <t>5/INV/PTG/II/2024</t>
+  </si>
+  <si>
+    <t>TARMILAH</t>
+  </si>
+  <si>
+    <t>BIAYA OBAT KLINIK MAJA I</t>
+  </si>
+  <si>
+    <t>PT.NUSANTARA SATRIA AGUNG</t>
+  </si>
+  <si>
+    <t>NSA-2024-0391</t>
+  </si>
+  <si>
+    <t>JASA PENYEDIA TENAGA KERJA</t>
+  </si>
+  <si>
+    <t>BIAYA TENAGA KERJA NSA MAJA I</t>
+  </si>
+  <si>
+    <t>NSA-2024-0503</t>
+  </si>
+  <si>
+    <t>KEKURANGAN BIAYA TK MAJA I</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1084,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:AZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,68 +1702,1202 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>24001253</v>
+      </c>
+      <c r="D5">
+        <v>1205</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45342</v>
+      </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5">
-        <v>475.78</v>
+        <v>104.36</v>
       </c>
       <c r="H5">
-        <v>475.78</v>
-      </c>
-      <c r="L5" s="2">
-        <v>7518800</v>
-      </c>
-      <c r="N5" s="2">
-        <v>7518800</v>
+        <v>104.36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5">
+        <v>2104240</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
       </c>
       <c r="AG5">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP5">
+        <v>1205</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR5">
+        <v>279273</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY5">
+        <v>631100</v>
+      </c>
+      <c r="AZ5">
+        <v>1205.6311000000001</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>24001253</v>
+      </c>
+      <c r="D6">
+        <v>1205</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45342</v>
+      </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>475.78</v>
+        <v>52.11</v>
       </c>
       <c r="H6">
-        <v>475.78</v>
-      </c>
-      <c r="L6" s="2">
-        <v>7518800</v>
-      </c>
-      <c r="N6" s="2">
-        <v>7518800</v>
+        <v>52.11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6">
+        <v>2104240</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
       </c>
       <c r="AG6">
-        <v>3</v>
+        <v>7.31</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP6">
+        <v>1205</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR6">
+        <v>275749</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY6">
+        <v>631100</v>
+      </c>
+      <c r="AZ6">
+        <v>1205.6311000000001</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <v>24001253</v>
+      </c>
+      <c r="D7">
+        <v>1205</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45342</v>
+      </c>
       <c r="F7" t="s">
         <v>72</v>
       </c>
       <c r="G7">
-        <v>475.78</v>
+        <v>73.5</v>
       </c>
       <c r="H7">
-        <v>475.78</v>
-      </c>
-      <c r="L7" s="2">
-        <v>7518800</v>
-      </c>
-      <c r="N7" s="2">
-        <v>7518800</v>
+        <v>73.5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7">
+        <v>2104240</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>10.31</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP7">
+        <v>1205</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR7">
+        <v>275749</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY7">
+        <v>631100</v>
+      </c>
+      <c r="AZ7">
+        <v>1205.6311000000001</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>24001254</v>
+      </c>
+      <c r="D8">
+        <v>1205</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45342</v>
+      </c>
       <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
         <v>73</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8">
+        <v>2104245</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>5468.06</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP8">
+        <v>1205</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR8">
+        <v>283093</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY8">
+        <v>631100</v>
+      </c>
+      <c r="AZ8">
+        <v>1205.6311000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>24001367</v>
+      </c>
+      <c r="D9">
+        <v>1205</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>182.02</v>
+      </c>
+      <c r="H9">
+        <v>182.02</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2876395</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2876395</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9">
+        <v>2105169</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9">
+        <v>55738803</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP9">
+        <v>1205</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9">
+        <v>24001114</v>
+      </c>
+      <c r="AY9">
+        <v>631100</v>
+      </c>
+      <c r="AZ9">
+        <v>1205.6311000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>24001370</v>
+      </c>
+      <c r="D10">
+        <v>1205</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10">
+        <v>127</v>
+      </c>
+      <c r="H10">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2006946</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2006946</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2105273</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10">
+        <v>55417891</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP10">
+        <v>1205</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX10">
+        <v>24001116</v>
+      </c>
+      <c r="AY10">
+        <v>631100</v>
+      </c>
+      <c r="AZ10">
+        <v>1205.6311000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>24001371</v>
+      </c>
+      <c r="D11">
+        <v>1205</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1269.98</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1269.98</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20069455</v>
+      </c>
+      <c r="N11" s="2">
+        <v>20069455</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15803</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>2105279</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11">
+        <v>55417891</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP11">
+        <v>1205</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX11">
+        <v>24001116</v>
+      </c>
+      <c r="AY11">
+        <v>631100</v>
+      </c>
+      <c r="AZ11">
+        <v>1205.6311000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>24001374</v>
+      </c>
+      <c r="D12">
+        <v>1205</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <v>3.62</v>
+      </c>
+      <c r="H12">
+        <v>3.62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2">
+        <v>57282</v>
+      </c>
+      <c r="N12" s="2">
+        <v>57282</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12">
+        <v>2105326</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12">
+        <v>55417891</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP12">
+        <v>1205</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX12">
+        <v>24001115</v>
+      </c>
+      <c r="AY12">
+        <v>631100</v>
+      </c>
+      <c r="AZ12">
+        <v>1205.6311000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>24001375</v>
+      </c>
+      <c r="D13">
+        <v>1205</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>36.25</v>
+      </c>
+      <c r="H13">
+        <v>36.25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2">
+        <v>572823</v>
+      </c>
+      <c r="N13" s="2">
+        <v>572823</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13">
+        <v>2105328</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13">
+        <v>55417891</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP13">
+        <v>1205</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX13">
+        <v>24001115</v>
+      </c>
+      <c r="AY13">
+        <v>631100</v>
+      </c>
+      <c r="AZ13">
+        <v>1205.6311000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2325.17</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2325.17</v>
+      </c>
+      <c r="L14" s="2">
+        <v>33101701</v>
+      </c>
+      <c r="N14" s="2">
+        <v>33101701</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>5583.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2325.17</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2325.17</v>
+      </c>
+      <c r="L15" s="2">
+        <v>33101701</v>
+      </c>
+      <c r="N15" s="2">
+        <v>33101701</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>5583.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2325.17</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2325.17</v>
+      </c>
+      <c r="L16" s="2">
+        <v>33101701</v>
+      </c>
+      <c r="N16" s="2">
+        <v>33101701</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>5583.68</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.631100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.631100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7484E673-DB9D-425B-B6EC-80F041276194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5751BF1D-A2DA-4420-98F0-2013961717E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T070543.345" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T071059.002" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="109">
   <si>
     <t>Do Ty</t>
   </si>
@@ -281,6 +281,60 @@
   </si>
   <si>
     <t>KEKURANGAN BIAYA TK MAJA I</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>OTHER PRODUCTION COST</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>RESI JNE,PANCA KOBRA DLL</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>JOURNAL KOREKSI</t>
+  </si>
+  <si>
+    <t>KOREKSI FREIGHT IN</t>
+  </si>
+  <si>
+    <t>SANTY</t>
+  </si>
+  <si>
+    <t>RESI HERONA &amp; PANCA KOBRA</t>
+  </si>
+  <si>
+    <t>OV</t>
+  </si>
+  <si>
+    <t>PO Receiving</t>
+  </si>
+  <si>
+    <t>JESA TRAHMAT</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PO/Contract Entries</t>
+  </si>
+  <si>
+    <t>SWATI</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1135,7 +1189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ17"/>
+  <dimension ref="A1:AZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1721,10 +1775,10 @@
         <v>72</v>
       </c>
       <c r="G5">
-        <v>104.36</v>
+        <v>73.5</v>
       </c>
       <c r="H5">
-        <v>104.36</v>
+        <v>73.5</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -1760,7 +1814,7 @@
         <v>56</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="s">
         <v>56</v>
@@ -1775,7 +1829,7 @@
         <v>56</v>
       </c>
       <c r="AG5">
-        <v>90</v>
+        <v>10.31</v>
       </c>
       <c r="AH5" t="s">
         <v>56</v>
@@ -1799,7 +1853,7 @@
         <v>65</v>
       </c>
       <c r="AR5">
-        <v>279273</v>
+        <v>275749</v>
       </c>
       <c r="AU5" t="s">
         <v>56</v>
@@ -1953,10 +2007,10 @@
         <v>72</v>
       </c>
       <c r="G7">
-        <v>73.5</v>
+        <v>104.36</v>
       </c>
       <c r="H7">
-        <v>73.5</v>
+        <v>104.36</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
@@ -1992,7 +2046,7 @@
         <v>56</v>
       </c>
       <c r="AA7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="s">
         <v>56</v>
@@ -2007,7 +2061,7 @@
         <v>56</v>
       </c>
       <c r="AG7">
-        <v>10.31</v>
+        <v>90</v>
       </c>
       <c r="AH7" t="s">
         <v>56</v>
@@ -2031,7 +2085,7 @@
         <v>65</v>
       </c>
       <c r="AR7">
-        <v>275749</v>
+        <v>279273</v>
       </c>
       <c r="AU7" t="s">
         <v>56</v>
@@ -2836,68 +2890,565 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14">
+        <v>24001028</v>
+      </c>
+      <c r="D14">
+        <v>1204</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45350</v>
+      </c>
       <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2325.17</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2325.17</v>
+        <v>89</v>
+      </c>
+      <c r="G14">
+        <v>11.2</v>
+      </c>
+      <c r="H14">
+        <v>11.2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
       </c>
       <c r="L14" s="2">
-        <v>33101701</v>
+        <v>177000</v>
       </c>
       <c r="N14" s="2">
-        <v>33101701</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>5583.68</v>
+        <v>177000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>15803</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X14">
+        <v>2106355</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP14">
+        <v>1205</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY14">
+        <v>631100</v>
+      </c>
+      <c r="AZ14">
+        <v>1205.6311000000001</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>24001012</v>
+      </c>
+      <c r="D15">
+        <v>1201</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45351</v>
+      </c>
       <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2325.17</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2325.17</v>
-      </c>
-      <c r="L15" s="2">
-        <v>33101701</v>
-      </c>
-      <c r="N15" s="2">
-        <v>33101701</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>5583.68</v>
+        <v>96</v>
+      </c>
+      <c r="G15">
+        <v>-475.78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15">
+        <v>-475.78</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15">
+        <v>2107209</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP15">
+        <v>1205</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15">
+        <v>631100</v>
+      </c>
+      <c r="AZ15">
+        <v>1205.6311000000001</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>24001039</v>
+      </c>
+      <c r="D16">
+        <v>1204</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45351</v>
+      </c>
       <c r="F16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="2">
-        <v>2325.17</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2325.17</v>
+      <c r="G16">
+        <v>13.29</v>
+      </c>
+      <c r="H16">
+        <v>13.29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
       </c>
       <c r="L16" s="2">
-        <v>33101701</v>
+        <v>210000</v>
       </c>
       <c r="N16" s="2">
-        <v>33101701</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>5583.68</v>
+        <v>210000</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>90</v>
+      </c>
+      <c r="W16" t="s">
+        <v>91</v>
+      </c>
+      <c r="X16">
+        <v>2106431</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP16">
+        <v>1205</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16">
+        <v>631100</v>
+      </c>
+      <c r="AZ16">
+        <v>1205.6311000000001</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>24001937</v>
+      </c>
+      <c r="D17">
+        <v>1205</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45351</v>
+      </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>0.11</v>
+      </c>
+      <c r="H17">
+        <v>0.11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>15439</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>102</v>
+      </c>
+      <c r="W17" t="s">
+        <v>103</v>
+      </c>
+      <c r="X17">
+        <v>2106454</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>4</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17">
+        <v>30</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17">
+        <v>57082431</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP17">
+        <v>1205</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR17">
+        <v>265225</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX17">
+        <v>24001033</v>
+      </c>
+      <c r="AY17">
+        <v>631100</v>
+      </c>
+      <c r="AZ17">
+        <v>1205.6311000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1873.99</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2349.77</v>
+      </c>
+      <c r="K18">
+        <v>-475.78</v>
+      </c>
+      <c r="L18" s="2">
+        <v>33488701</v>
+      </c>
+      <c r="N18" s="2">
+        <v>33488701</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>5613.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1873.99</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1873.99</v>
+      </c>
+      <c r="L19" s="2">
+        <v>33488701</v>
+      </c>
+      <c r="N19" s="2">
+        <v>33488701</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>5613.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1873.99</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2349.77</v>
+      </c>
+      <c r="K20">
+        <v>-475.78</v>
+      </c>
+      <c r="L20" s="2">
+        <v>33488701</v>
+      </c>
+      <c r="N20" s="2">
+        <v>33488701</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>5613.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
